--- a/data/trans_orig/P1430-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>16715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9206</v>
+        <v>9870</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27344</v>
+        <v>29305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01714953837101854</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009445446728844521</v>
+        <v>0.01012720759566822</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02805539762578503</v>
+        <v>0.03006694548975119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -763,19 +763,19 @@
         <v>13819</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7595</v>
+        <v>7807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22351</v>
+        <v>23118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01032940380190022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005677031551071824</v>
+        <v>0.005835908039616705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01670701569478427</v>
+        <v>0.01728077607682714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -784,19 +784,19 @@
         <v>30533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20128</v>
+        <v>20590</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42797</v>
+        <v>44414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01320394228170717</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008704333380472213</v>
+        <v>0.008904041678518007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0185073162414318</v>
+        <v>0.01920650980472223</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>957928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>947299</v>
+        <v>945338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>965437</v>
+        <v>964773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9828504616289815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9719446023742149</v>
+        <v>0.9699330545102489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905545532711555</v>
+        <v>0.9898727924043319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1234</v>
@@ -834,19 +834,19 @@
         <v>1323978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1315446</v>
+        <v>1314679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1330202</v>
+        <v>1329990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9896705961980998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9832929843052158</v>
+        <v>0.9827192239231729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943229684489284</v>
+        <v>0.9941640919603836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2128</v>
@@ -855,19 +855,19 @@
         <v>2281907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2269643</v>
+        <v>2268026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2292312</v>
+        <v>2291850</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9867960577182928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9814926837585682</v>
+        <v>0.9807934901952778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9912956666195278</v>
+        <v>0.9910959583214821</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4077</v>
+        <v>4058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15397</v>
+        <v>16341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004184393312665137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002076154807403503</v>
+        <v>0.002066244413945054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007839901533259261</v>
+        <v>0.008320577602410482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>8353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4088</v>
+        <v>4134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15462</v>
+        <v>15571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004760752362047645</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002330077665673972</v>
+        <v>0.002356006084848292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008812114203254931</v>
+        <v>0.008874624046519843</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1001,19 +1001,19 @@
         <v>16571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9311</v>
+        <v>9546</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27097</v>
+        <v>26851</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004456347472810862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002503921293693471</v>
+        <v>0.002567093185208022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007286896032181722</v>
+        <v>0.007220909910092907</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1955739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1948560</v>
+        <v>1947616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1959880</v>
+        <v>1959899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9958156066873348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9921600984667409</v>
+        <v>0.9916794223975897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979238451925965</v>
+        <v>0.997933755586055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1625</v>
@@ -1051,19 +1051,19 @@
         <v>1746239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1739130</v>
+        <v>1739021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1750504</v>
+        <v>1750458</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9952392476379524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9911878857967449</v>
+        <v>0.9911253759534799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976699223343261</v>
+        <v>0.9976439939151518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3473</v>
@@ -1072,19 +1072,19 @@
         <v>3701978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3691452</v>
+        <v>3691698</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3709238</v>
+        <v>3709003</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9955436525271891</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9927131039678183</v>
+        <v>0.9927790900899072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974960787063066</v>
+        <v>0.997432906814792</v>
       </c>
     </row>
     <row r="9">
@@ -1345,19 +1345,19 @@
         <v>24933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15526</v>
+        <v>14560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38480</v>
+        <v>37069</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007290712980803561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004539944932481704</v>
+        <v>0.00425754000217602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01125226967118612</v>
+        <v>0.01083957744846956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1366,19 +1366,19 @@
         <v>22172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13560</v>
+        <v>13903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33540</v>
+        <v>32779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006243789395031009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003818520014943736</v>
+        <v>0.003915092896846533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009445178966163743</v>
+        <v>0.009230889296938742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1387,19 +1387,19 @@
         <v>47104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34411</v>
+        <v>34489</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64418</v>
+        <v>62279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006757396084495959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004936498226858628</v>
+        <v>0.004947679554467153</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009241179977968231</v>
+        <v>0.008934296923264489</v>
       </c>
     </row>
     <row r="14">
@@ -1416,19 +1416,19 @@
         <v>3394849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3381302</v>
+        <v>3382713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3404256</v>
+        <v>3405222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9927092870191965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9887477303288131</v>
+        <v>0.9891604225515305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954600550675182</v>
+        <v>0.995742459997824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3271</v>
@@ -1437,19 +1437,19 @@
         <v>3528848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3517480</v>
+        <v>3518241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3537460</v>
+        <v>3537117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.993756210604969</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9905548210338362</v>
+        <v>0.9907691107030613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9961814799850562</v>
+        <v>0.9960849071031533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6451</v>
@@ -1458,19 +1458,19 @@
         <v>6923697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6906383</v>
+        <v>6908522</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6936390</v>
+        <v>6936312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.993242603915504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9907588200220313</v>
+        <v>0.9910657030767355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9950635017731412</v>
+        <v>0.9950523204455329</v>
       </c>
     </row>
     <row r="15">
@@ -1801,19 +1801,19 @@
         <v>5064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2039</v>
+        <v>1658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11548</v>
+        <v>11386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006712712631396583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002703427943629723</v>
+        <v>0.002198401310288463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01530885098397988</v>
+        <v>0.01509344317050688</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -1822,19 +1822,19 @@
         <v>6498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2120</v>
+        <v>2394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15487</v>
+        <v>15864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006532667401836047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002131241371053454</v>
+        <v>0.002406518489554279</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01557020503202577</v>
+        <v>0.01594930448275535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -1843,19 +1843,19 @@
         <v>11561</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5992</v>
+        <v>5414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21221</v>
+        <v>21986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006610320917583298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003426042317787926</v>
+        <v>0.003095210105389783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01213289023133252</v>
+        <v>0.01257059883849954</v>
       </c>
     </row>
     <row r="5">
@@ -1872,19 +1872,19 @@
         <v>749283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>742799</v>
+        <v>742961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>752308</v>
+        <v>752689</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9932872873686034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9846911490160201</v>
+        <v>0.9849065568294932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9972965720563702</v>
+        <v>0.9978015986897115</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>887</v>
@@ -1893,19 +1893,19 @@
         <v>988162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>979173</v>
+        <v>978796</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>992540</v>
+        <v>992266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.993467332598164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9844297949679743</v>
+        <v>0.9840506955172451</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9978687586289465</v>
+        <v>0.9975934815104458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1644</v>
@@ -1914,19 +1914,19 @@
         <v>1737446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1727786</v>
+        <v>1727021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1743015</v>
+        <v>1743593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9933896790824167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9878671097686675</v>
+        <v>0.9874294011615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9965739576822121</v>
+        <v>0.9969047898946101</v>
       </c>
     </row>
     <row r="6">
@@ -2018,19 +2018,19 @@
         <v>13332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7132</v>
+        <v>7474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22570</v>
+        <v>24270</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006421007856773715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003434844511547741</v>
+        <v>0.003599668756770907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01086974953057021</v>
+        <v>0.01168834323439219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2039,19 +2039,19 @@
         <v>5415</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2001</v>
+        <v>2070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12449</v>
+        <v>12975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002723571157148697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001006636481373262</v>
+        <v>0.001041264436874832</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006261174440924213</v>
+        <v>0.006525430253711149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2060,19 +2060,19 @@
         <v>18748</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11411</v>
+        <v>10765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29514</v>
+        <v>30591</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004612352678161968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00280737246089401</v>
+        <v>0.002648408200374079</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007261172811457797</v>
+        <v>0.007526150514368808</v>
       </c>
     </row>
     <row r="8">
@@ -2089,19 +2089,19 @@
         <v>2063053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2053815</v>
+        <v>2052115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2069253</v>
+        <v>2068911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9935789921432263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9891302504694298</v>
+        <v>0.9883116567656079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965651554884523</v>
+        <v>0.9964003312432291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1903</v>
@@ -2110,19 +2110,19 @@
         <v>1982885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1975851</v>
+        <v>1975325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1986299</v>
+        <v>1986230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9972764288428513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9937388255590757</v>
+        <v>0.9934745697462884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9989933635186268</v>
+        <v>0.9989587355631251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3843</v>
@@ -2131,19 +2131,19 @@
         <v>4045937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4035171</v>
+        <v>4034094</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4053274</v>
+        <v>4053920</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.995387647321838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9927388271885421</v>
+        <v>0.992473849485631</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997192627539106</v>
+        <v>0.9973515917996257</v>
       </c>
     </row>
     <row r="9">
@@ -2235,19 +2235,19 @@
         <v>6367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15780</v>
+        <v>15122</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01164312053494836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003507368392373857</v>
+        <v>0.003499717890910097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02885442307909809</v>
+        <v>0.0276517195260214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6369</v>
+        <v>6463</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003290037692078073</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01159827119934742</v>
+        <v>0.01176952593986497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2277,19 +2277,19 @@
         <v>8174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3549</v>
+        <v>2842</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17137</v>
+        <v>16313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007457989428979098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003237631664810711</v>
+        <v>0.00259257441655719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01563573901357027</v>
+        <v>0.01488373255514509</v>
       </c>
     </row>
     <row r="11">
@@ -2306,19 +2306,19 @@
         <v>540519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531106</v>
+        <v>531764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544968</v>
+        <v>544972</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883568794650517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9711455769209016</v>
+        <v>0.972348280473977</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9964926316076261</v>
+        <v>0.9965002821090899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -2327,7 +2327,7 @@
         <v>547333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542771</v>
+        <v>542677</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -2336,7 +2336,7 @@
         <v>0.996709962307922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9884017288006526</v>
+        <v>0.9882304740601354</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2348,19 +2348,19 @@
         <v>1087853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1078890</v>
+        <v>1079714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092478</v>
+        <v>1093185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9925420105710209</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9843642609864302</v>
+        <v>0.9851162674448549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967623683351893</v>
+        <v>0.9974074255834428</v>
       </c>
     </row>
     <row r="12">
@@ -2452,19 +2452,19 @@
         <v>24764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15719</v>
+        <v>15316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38042</v>
+        <v>35746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007331693492007726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004653977429789071</v>
+        <v>0.004534515668083685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01126302423779324</v>
+        <v>0.01058308218600168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2473,19 +2473,19 @@
         <v>13720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7480</v>
+        <v>7539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23856</v>
+        <v>24850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003884304255587655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002117841277648485</v>
+        <v>0.002134412480705943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006754012985504316</v>
+        <v>0.007035523159057321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -2494,19 +2494,19 @@
         <v>38483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26366</v>
+        <v>27540</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53713</v>
+        <v>54577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005569461717358304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003815766314558617</v>
+        <v>0.003985743738256544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007773556315453876</v>
+        <v>0.007898617384870613</v>
       </c>
     </row>
     <row r="14">
@@ -2523,19 +2523,19 @@
         <v>3352854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3339576</v>
+        <v>3341872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3361899</v>
+        <v>3362302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9926683065079923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9887369757622065</v>
+        <v>0.9894169178139982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9953460225702109</v>
+        <v>0.9954654843319163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3314</v>
@@ -2544,19 +2544,19 @@
         <v>3518380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3508244</v>
+        <v>3507250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3524620</v>
+        <v>3524561</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9961156957444124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.993245987014496</v>
+        <v>0.9929644768409427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9978821587223515</v>
+        <v>0.9978655875192942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6507</v>
@@ -2565,19 +2565,19 @@
         <v>6871235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6856005</v>
+        <v>6855141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6883352</v>
+        <v>6882178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9944305382826417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9922264436845463</v>
+        <v>0.9921013826151295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9961842336854414</v>
+        <v>0.9960142562617434</v>
       </c>
     </row>
     <row r="15">
